--- a/refined_history.xlsx
+++ b/refined_history.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="edges" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="daily_summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +17,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +59,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -488,35 +493,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Crude Oil West Texas - Cash</t>
+          <t>CL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" t="n">
-        <v>13.93</v>
+        <v>13.94</v>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" t="n">
-        <v>26.81416666666667</v>
+        <v>26.32594594594595</v>
       </c>
       <c r="F2" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G2" t="n">
-        <v>-20.92142857142857</v>
+        <v>-20.49302325581396</v>
       </c>
       <c r="H2" t="n">
-        <v>1.110384615384618</v>
+        <v>1.16075</v>
       </c>
       <c r="I2" t="n">
-        <v>46.15384615384615</v>
+        <v>46.25</v>
       </c>
       <c r="J2" t="n">
-        <v>1.281660407420052</v>
+        <v>1.284629681883427</v>
       </c>
     </row>
     <row r="3">
@@ -526,10 +531,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>2.5</v>
+        <v>2.61</v>
       </c>
       <c r="D3" t="n">
         <v>7</v>
@@ -538,32 +543,32 @@
         <v>18.67142857142857</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.585714285714286</v>
+        <v>-6.4375</v>
       </c>
       <c r="H3" t="n">
-        <v>6.042857142857144</v>
+        <v>5.280000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="J3" t="n">
-        <v>2.835140997830803</v>
+        <v>2.900416088765604</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>US 30 - Cash</t>
+          <t>DJI</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>105</v>
       </c>
       <c r="C4" t="n">
-        <v>18.75</v>
+        <v>18.29</v>
       </c>
       <c r="D4" t="n">
         <v>47</v>
@@ -590,14 +595,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Gold - Cash</t>
+          <t>GC</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>43</v>
       </c>
       <c r="C5" t="n">
-        <v>7.68</v>
+        <v>7.49</v>
       </c>
       <c r="D5" t="n">
         <v>22</v>
@@ -624,14 +629,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AUD/USD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -665,7 +670,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
@@ -692,14 +697,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Crude Oil West Texas - Jan 2025</t>
+          <t>CL_Fut</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>3.21</v>
+        <v>3.14</v>
       </c>
       <c r="D8" t="n">
         <v>10</v>
@@ -730,10 +735,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>5.23</v>
       </c>
       <c r="D9" t="n">
         <v>16</v>
@@ -742,38 +747,38 @@
         <v>21.398125</v>
       </c>
       <c r="F9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G9" t="n">
-        <v>-34.94583333333333</v>
+        <v>-30.75714285714286</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.749285714285714</v>
+        <v>-2.941000000000003</v>
       </c>
       <c r="I9" t="n">
-        <v>57.14285714285714</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="J9" t="n">
-        <v>0.612322642184333</v>
+        <v>0.6957123780771016</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Japan 225 - Cash</t>
+          <t>NKY</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C10" t="n">
-        <v>27.32</v>
+        <v>27.53</v>
       </c>
       <c r="D10" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E10" t="n">
-        <v>34.21276923076923</v>
+        <v>33.41885714285714</v>
       </c>
       <c r="F10" t="n">
         <v>88</v>
@@ -782,32 +787,32 @@
         <v>-32.37761363636364</v>
       </c>
       <c r="H10" t="n">
-        <v>-4.087581699346408</v>
+        <v>-3.227278481012664</v>
       </c>
       <c r="I10" t="n">
-        <v>42.48366013071895</v>
+        <v>44.30379746835442</v>
       </c>
       <c r="J10" t="n">
-        <v>1.056679766922183</v>
+        <v>1.032159365362371</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>US NDAQ 100 - Cash</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C11" t="n">
-        <v>11.25</v>
+        <v>11.67</v>
       </c>
       <c r="D11" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E11" t="n">
-        <v>16.10266666666667</v>
+        <v>15.50676470588235</v>
       </c>
       <c r="F11" t="n">
         <v>33</v>
@@ -816,26 +821,26 @@
         <v>-16.33818181818182</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.8901587301587295</v>
+        <v>-0.1780597014925345</v>
       </c>
       <c r="I11" t="n">
-        <v>47.61904761904761</v>
+        <v>50.74626865671642</v>
       </c>
       <c r="J11" t="n">
-        <v>0.985584984049262</v>
+        <v>0.949112017386523</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>US T-Note 10 YR - Cash</t>
+          <t>TNote_10yr</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="D12" t="n">
         <v>3</v>
@@ -862,14 +867,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Heating Oil - Cash</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -896,14 +901,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Gasoline - Cash</t>
+          <t>RBOB</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -937,7 +942,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -964,14 +969,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Germany 40 - Cash</t>
+          <t>DAX</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -991,19 +996,18 @@
       <c r="I16" t="n">
         <v>100</v>
       </c>
-      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Japan 225 - Dec 2024</t>
+          <t>NKY_Fut</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="D17" t="n">
         <v>5</v>
@@ -1030,14 +1034,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EU Natural Gas (TTF) - Jan 2025</t>
+          <t>TTF</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -1057,7 +1061,6 @@
       <c r="I18" t="n">
         <v>100</v>
       </c>
-      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1069,7 +1072,7 @@
         <v>11</v>
       </c>
       <c r="C19" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="D19" t="n">
         <v>4</v>
@@ -1096,14 +1099,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>US NDAQ 100 - Dec 2024</t>
+          <t>NQ_Fut</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1130,14 +1133,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Soybean - Cash</t>
+          <t>SOYA</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1164,14 +1167,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Euro 50 - Cash</t>
+          <t>SX5E</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -1191,19 +1194,18 @@
       <c r="I22" t="n">
         <v>100</v>
       </c>
-      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Copper - Cash</t>
+          <t>Copper</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -1223,7 +1225,1159 @@
       <c r="I23" t="n">
         <v>100</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Trades</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>% of Total Trades</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Average Win</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Average Loss</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>% Win</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>% Loss</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Edge</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>RRR</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Total Stakes</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Average Stake</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Most Stakes Product</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Biggest Winning Product</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Biggest Losing Product</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5226480836236934</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>49.65</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-44.84999999999999</v>
+      </c>
+      <c r="H2" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="I2" t="n">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-13.35</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.107023411371238</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>USD/JPY</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3484320557491289</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>45.88</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>100</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>45.88</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>GC</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>GC</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5226480836236934</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>26.145</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="H4" t="n">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="I4" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="J4" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>67.03846153846153</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>USD/CAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45616</v>
+      </c>
+      <c r="B5" t="n">
+        <v>64</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11.14982578397213</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33</v>
+      </c>
+      <c r="E5" t="n">
+        <v>14.86151515151515</v>
+      </c>
+      <c r="F5" t="n">
+        <v>31</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-12.73290322580645</v>
+      </c>
+      <c r="H5" t="n">
+        <v>51.5625</v>
+      </c>
+      <c r="I5" t="n">
+        <v>48.4375</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.49546875</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.167174122661557</v>
+      </c>
+      <c r="L5" t="n">
+        <v>52.59999999999999</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.8218749999999999</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>CL_Fut</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.045296167247387</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>26.625</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-37.67999999999999</v>
+      </c>
+      <c r="H6" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="I6" t="n">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-16.24499999999999</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.7066082802547772</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5226480836236934</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.359999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-49.65</v>
+      </c>
+      <c r="H7" t="n">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="I7" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-12.31</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1280966767371601</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>NKY</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>DAX</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>GBP/JPY</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45620</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3484320557491289</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>16.93</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-96.59999999999999</v>
+      </c>
+      <c r="H8" t="n">
+        <v>50</v>
+      </c>
+      <c r="I8" t="n">
+        <v>50</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-39.83499999999999</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1752587991718426</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>USD/CAD</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>GC</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>USD/CAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B9" t="n">
+        <v>29</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5.052264808362369</v>
+      </c>
+      <c r="D9" t="n">
+        <v>17</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14.35588235294118</v>
+      </c>
+      <c r="F9" t="n">
+        <v>12</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-9.685833333333333</v>
+      </c>
+      <c r="H9" t="n">
+        <v>58.62068965517241</v>
+      </c>
+      <c r="I9" t="n">
+        <v>41.37931034482759</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.407586206896551</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.482152527190004</v>
+      </c>
+      <c r="L9" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.3896551724137931</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>NKY_Fut</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>CL_Fut</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>NKY_Fut</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B10" t="n">
+        <v>86</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14.98257839721254</v>
+      </c>
+      <c r="D10" t="n">
+        <v>42</v>
+      </c>
+      <c r="E10" t="n">
+        <v>34.77119047619048</v>
+      </c>
+      <c r="F10" t="n">
+        <v>44</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-28.67727272727273</v>
+      </c>
+      <c r="H10" t="n">
+        <v>48.83720930232558</v>
+      </c>
+      <c r="I10" t="n">
+        <v>51.16279069767442</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.309186046511629</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.212499905652545</v>
+      </c>
+      <c r="L10" t="n">
+        <v>256.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.982558139534884</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.393728222996516</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>23.514</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-17.41333333333333</v>
+      </c>
+      <c r="H11" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8.166250000000002</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.350344563552833</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1742160278745645</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.219512195121951</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-27.88200000000001</v>
+      </c>
+      <c r="H13" t="n">
+        <v>28.57142857142857</v>
+      </c>
+      <c r="I13" t="n">
+        <v>71.42857142857143</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-16.55857142857143</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.4214188365253568</v>
+      </c>
+      <c r="L13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.314285714285714</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>USD/CAD</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>SX5E</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>USD/CAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B14" t="n">
+        <v>36</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.271777003484321</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" t="n">
+        <v>44.279</v>
+      </c>
+      <c r="F14" t="n">
+        <v>26</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-32.42384615384616</v>
+      </c>
+      <c r="H14" t="n">
+        <v>27.77777777777778</v>
+      </c>
+      <c r="I14" t="n">
+        <v>72.22222222222221</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-11.1175</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.365630708642737</v>
+      </c>
+      <c r="L14" t="n">
+        <v>87</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.416666666666667</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>NKY</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>NKY</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>NKY</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B15" t="n">
+        <v>67</v>
+      </c>
+      <c r="C15" t="n">
+        <v>11.67247386759582</v>
+      </c>
+      <c r="D15" t="n">
+        <v>29</v>
+      </c>
+      <c r="E15" t="n">
+        <v>34.65758620689655</v>
+      </c>
+      <c r="F15" t="n">
+        <v>38</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-12.50105263157895</v>
+      </c>
+      <c r="H15" t="n">
+        <v>43.28358208955223</v>
+      </c>
+      <c r="I15" t="n">
+        <v>56.71641791044776</v>
+      </c>
+      <c r="J15" t="n">
+        <v>7.910895522388059</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.772373433525743</v>
+      </c>
+      <c r="L15" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.9223880597014925</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>NKY</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>NKY</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>NKY</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B16" t="n">
+        <v>93</v>
+      </c>
+      <c r="C16" t="n">
+        <v>16.2020905923345</v>
+      </c>
+      <c r="D16" t="n">
+        <v>42</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F16" t="n">
+        <v>51</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-3.778823529411765</v>
+      </c>
+      <c r="H16" t="n">
+        <v>45.16129032258064</v>
+      </c>
+      <c r="I16" t="n">
+        <v>54.83870967741935</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.2387096774193547</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.074408468244085</v>
+      </c>
+      <c r="L16" t="n">
+        <v>56.10000000000001</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.6032258064516129</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>GC</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B17" t="n">
+        <v>18</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.13588850174216</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E17" t="n">
+        <v>13.57166666666667</v>
+      </c>
+      <c r="F17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-119.2416666666667</v>
+      </c>
+      <c r="H17" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="I17" t="n">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-74.97055555555555</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.1138164791390034</v>
+      </c>
+      <c r="L17" t="n">
+        <v>39</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>NKY</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>NKY</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B18" t="n">
+        <v>15</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.613240418118467</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7</v>
+      </c>
+      <c r="E18" t="n">
+        <v>105.5628571428571</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-74.88625</v>
+      </c>
+      <c r="H18" t="n">
+        <v>46.66666666666666</v>
+      </c>
+      <c r="I18" t="n">
+        <v>53.33333333333334</v>
+      </c>
+      <c r="J18" t="n">
+        <v>9.323333333333331</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.409642720030141</v>
+      </c>
+      <c r="L18" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2.146666666666667</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>USD/JPY</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>NKY</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>NKY</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.787456445993032</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E19" t="n">
+        <v>43.23</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-33.71</v>
+      </c>
+      <c r="H19" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>14.3775</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.282408780777218</v>
+      </c>
+      <c r="L19" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.39375</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>NKY</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>NKY</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>NKY</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B20" t="n">
+        <v>115</v>
+      </c>
+      <c r="C20" t="n">
+        <v>20.03484320557491</v>
+      </c>
+      <c r="D20" t="n">
+        <v>51</v>
+      </c>
+      <c r="E20" t="n">
+        <v>15.63705882352942</v>
+      </c>
+      <c r="F20" t="n">
+        <v>64</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-13.73</v>
+      </c>
+      <c r="H20" t="n">
+        <v>44.34782608695652</v>
+      </c>
+      <c r="I20" t="n">
+        <v>55.65217391304348</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-0.7063478260869553</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.138897219485027</v>
+      </c>
+      <c r="L20" t="n">
+        <v>93.2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.8104347826086957</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>NKY</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>NKY</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>NKY</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/refined_history.xlsx
+++ b/refined_history.xlsx
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C2" t="n">
-        <v>13.94</v>
+        <v>13.39</v>
       </c>
       <c r="D2" t="n">
         <v>37</v>
@@ -509,19 +509,19 @@
         <v>26.32594594594595</v>
       </c>
       <c r="F2" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2" t="n">
-        <v>-20.49302325581396</v>
+        <v>-20.03863636363636</v>
       </c>
       <c r="H2" t="n">
-        <v>1.16075</v>
+        <v>1.140246913580247</v>
       </c>
       <c r="I2" t="n">
-        <v>46.25</v>
+        <v>45.67901234567901</v>
       </c>
       <c r="J2" t="n">
-        <v>1.284629681883427</v>
+        <v>1.31375935309246</v>
       </c>
     </row>
     <row r="3">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>2.61</v>
+        <v>2.64</v>
       </c>
       <c r="D3" t="n">
         <v>7</v>
@@ -543,19 +543,19 @@
         <v>18.67142857142857</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.4375</v>
+        <v>-7.355555555555556</v>
       </c>
       <c r="H3" t="n">
-        <v>5.280000000000001</v>
+        <v>4.031250000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>46.66666666666666</v>
+        <v>43.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.900416088765604</v>
+        <v>2.538411739318084</v>
       </c>
     </row>
     <row r="4">
@@ -565,31 +565,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C4" t="n">
-        <v>18.29</v>
+        <v>18.02</v>
       </c>
       <c r="D4" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" t="n">
-        <v>26.92595744680851</v>
+        <v>26.394375</v>
       </c>
       <c r="F4" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G4" t="n">
-        <v>-25.83103448275862</v>
+        <v>-24.79262295081967</v>
       </c>
       <c r="H4" t="n">
-        <v>-2.215999999999999</v>
+        <v>-2.25155963302752</v>
       </c>
       <c r="I4" t="n">
-        <v>44.76190476190477</v>
+        <v>44.03669724770643</v>
       </c>
       <c r="J4" t="n">
-        <v>1.042387886740685</v>
+        <v>1.064605993982874</v>
       </c>
     </row>
     <row r="5">
@@ -599,16 +599,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" t="n">
-        <v>7.49</v>
+        <v>7.27</v>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>14.71454545454545</v>
+        <v>15.16086956521739</v>
       </c>
       <c r="F5" t="n">
         <v>21</v>
@@ -617,13 +617,13 @@
         <v>-10.43571428571429</v>
       </c>
       <c r="H5" t="n">
-        <v>2.431860465116277</v>
+        <v>2.944318181818179</v>
       </c>
       <c r="I5" t="n">
-        <v>51.16279069767442</v>
+        <v>52.27272727272727</v>
       </c>
       <c r="J5" t="n">
-        <v>1.410018044925642</v>
+        <v>1.452786953545814</v>
       </c>
     </row>
     <row r="6">
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.52</v>
+        <v>0.66</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -645,19 +645,19 @@
         <v>17.495</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>-14</v>
+        <v>-12.45</v>
       </c>
       <c r="H6" t="n">
-        <v>6.996666666666668</v>
+        <v>2.522500000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>66.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="J6" t="n">
-        <v>1.249642857142857</v>
+        <v>1.405220883534137</v>
       </c>
     </row>
     <row r="7">
@@ -670,7 +670,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
@@ -704,7 +704,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>3.14</v>
+        <v>2.98</v>
       </c>
       <c r="D8" t="n">
         <v>10</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" t="n">
-        <v>5.23</v>
+        <v>5.29</v>
       </c>
       <c r="D9" t="n">
         <v>16</v>
@@ -747,19 +747,19 @@
         <v>21.398125</v>
       </c>
       <c r="F9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G9" t="n">
-        <v>-30.75714285714286</v>
+        <v>-27.540625</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.941000000000003</v>
+        <v>-3.071250000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>53.33333333333334</v>
+        <v>50</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6957123780771016</v>
+        <v>0.7769658459094519</v>
       </c>
     </row>
     <row r="10">
@@ -769,31 +769,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C10" t="n">
-        <v>27.53</v>
+        <v>26.94</v>
       </c>
       <c r="D10" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E10" t="n">
-        <v>33.41885714285714</v>
+        <v>33.34958904109588</v>
       </c>
       <c r="F10" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G10" t="n">
-        <v>-32.37761363636364</v>
+        <v>-31.92866666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>-3.227278481012664</v>
+        <v>-2.693619631901846</v>
       </c>
       <c r="I10" t="n">
-        <v>44.30379746835442</v>
+        <v>44.78527607361963</v>
       </c>
       <c r="J10" t="n">
-        <v>1.032159365362371</v>
+        <v>1.044503028869434</v>
       </c>
     </row>
     <row r="11">
@@ -803,31 +803,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C11" t="n">
-        <v>11.67</v>
+        <v>11.9</v>
       </c>
       <c r="D11" t="n">
+        <v>38</v>
+      </c>
+      <c r="E11" t="n">
+        <v>14.95078947368421</v>
+      </c>
+      <c r="F11" t="n">
         <v>34</v>
       </c>
-      <c r="E11" t="n">
-        <v>15.50676470588235</v>
-      </c>
-      <c r="F11" t="n">
-        <v>33</v>
-      </c>
       <c r="G11" t="n">
-        <v>-16.33818181818182</v>
+        <v>-15.93735294117647</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.1780597014925345</v>
+        <v>0.3647222222222224</v>
       </c>
       <c r="I11" t="n">
-        <v>50.74626865671642</v>
+        <v>52.77777777777778</v>
       </c>
       <c r="J11" t="n">
-        <v>0.949112017386523</v>
+        <v>0.9380974073214298</v>
       </c>
     </row>
     <row r="12">
@@ -837,31 +837,31 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D12" t="n">
         <v>4</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3</v>
-      </c>
       <c r="E12" t="n">
-        <v>1.326666666666667</v>
+        <v>4.67</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>-14.3</v>
+        <v>-14.45</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.58</v>
+        <v>-1.703333333333333</v>
       </c>
       <c r="I12" t="n">
-        <v>75</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="J12" t="n">
-        <v>0.09277389277389277</v>
+        <v>0.3231833910034602</v>
       </c>
     </row>
     <row r="13">
@@ -871,16 +871,16 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D13" t="n">
         <v>2</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
       <c r="E13" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -889,13 +889,13 @@
         <v>-2.75</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.02499999999999991</v>
+        <v>0.7833333333333331</v>
       </c>
       <c r="I13" t="n">
-        <v>50</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9818181818181819</v>
+        <v>0.9272727272727272</v>
       </c>
     </row>
     <row r="14">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>0.87</v>
+        <v>0.99</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -917,13 +917,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>-11.75</v>
+        <v>-10.40833333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>-11.75</v>
+        <v>-10.40833333333333</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -973,10 +973,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>0.17</v>
+        <v>0.66</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -985,16 +985,19 @@
         <v>7.22</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-1.37</v>
       </c>
       <c r="H16" t="n">
-        <v>7.22</v>
+        <v>0.7775000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>100</v>
+        <v>25</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5.27007299270073</v>
       </c>
     </row>
     <row r="17">
@@ -1007,7 +1010,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="D17" t="n">
         <v>5</v>
@@ -1072,7 +1075,7 @@
         <v>11</v>
       </c>
       <c r="C19" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="D19" t="n">
         <v>4</v>
@@ -1103,10 +1106,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1115,13 +1118,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>-13.75</v>
+        <v>-9.243333333333334</v>
       </c>
       <c r="H20" t="n">
-        <v>-13.75</v>
+        <v>-9.243333333333334</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1171,10 +1174,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>0.17</v>
+        <v>0.66</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -1183,16 +1186,19 @@
         <v>20</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-1.92</v>
       </c>
       <c r="H22" t="n">
-        <v>20</v>
+        <v>3.56</v>
       </c>
       <c r="I22" t="n">
-        <v>100</v>
+        <v>25</v>
+      </c>
+      <c r="J22" t="n">
+        <v>10.41666666666667</v>
       </c>
     </row>
     <row r="23">
@@ -1237,7 +1243,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,7 +1341,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5226480836236934</v>
+        <v>0.4958677685950413</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1391,7 +1397,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3484320557491289</v>
+        <v>0.3305785123966942</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -1441,7 +1447,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5226480836236934</v>
+        <v>0.4958677685950413</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -1497,7 +1503,7 @@
         <v>64</v>
       </c>
       <c r="C5" t="n">
-        <v>11.14982578397213</v>
+        <v>10.57851239669422</v>
       </c>
       <c r="D5" t="n">
         <v>33</v>
@@ -1553,7 +1559,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>1.045296167247387</v>
+        <v>0.9917355371900827</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -1565,7 +1571,7 @@
         <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>-37.67999999999999</v>
+        <v>-37.68</v>
       </c>
       <c r="H6" t="n">
         <v>33.33333333333333</v>
@@ -1574,16 +1580,16 @@
         <v>66.66666666666666</v>
       </c>
       <c r="J6" t="n">
-        <v>-16.24499999999999</v>
+        <v>-16.245</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7066082802547772</v>
+        <v>0.7066082802547771</v>
       </c>
       <c r="L6" t="n">
         <v>3.3</v>
       </c>
       <c r="M6" t="n">
-        <v>0.55</v>
+        <v>0.5499999999999999</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -1609,7 +1615,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5226480836236934</v>
+        <v>0.4958677685950413</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
@@ -1665,7 +1671,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3484320557491289</v>
+        <v>0.3305785123966942</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1721,7 +1727,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>5.052264808362369</v>
+        <v>4.793388429752066</v>
       </c>
       <c r="D9" t="n">
         <v>17</v>
@@ -1742,7 +1748,7 @@
         <v>41.37931034482759</v>
       </c>
       <c r="J9" t="n">
-        <v>4.407586206896551</v>
+        <v>4.407586206896553</v>
       </c>
       <c r="K9" t="n">
         <v>1.482152527190004</v>
@@ -1751,7 +1757,7 @@
         <v>11.3</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3896551724137931</v>
+        <v>0.389655172413793</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1777,7 +1783,7 @@
         <v>86</v>
       </c>
       <c r="C10" t="n">
-        <v>14.98257839721254</v>
+        <v>14.21487603305785</v>
       </c>
       <c r="D10" t="n">
         <v>42</v>
@@ -1833,7 +1839,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>1.393728222996516</v>
+        <v>1.322314049586777</v>
       </c>
       <c r="D11" t="n">
         <v>5</v>
@@ -1854,7 +1860,7 @@
         <v>37.5</v>
       </c>
       <c r="J11" t="n">
-        <v>8.166250000000002</v>
+        <v>8.166249999999998</v>
       </c>
       <c r="K11" t="n">
         <v>1.350344563552833</v>
@@ -1889,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1742160278745645</v>
+        <v>0.1652892561983471</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1939,7 +1945,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>1.219512195121951</v>
+        <v>1.15702479338843</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
@@ -1951,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>-27.88200000000001</v>
+        <v>-27.882</v>
       </c>
       <c r="H13" t="n">
         <v>28.57142857142857</v>
@@ -1963,7 +1969,7 @@
         <v>-16.55857142857143</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4214188365253568</v>
+        <v>0.4214188365253569</v>
       </c>
       <c r="L13" t="n">
         <v>9.199999999999999</v>
@@ -1995,7 +2001,7 @@
         <v>36</v>
       </c>
       <c r="C14" t="n">
-        <v>6.271777003484321</v>
+        <v>5.950413223140496</v>
       </c>
       <c r="D14" t="n">
         <v>10</v>
@@ -2051,7 +2057,7 @@
         <v>67</v>
       </c>
       <c r="C15" t="n">
-        <v>11.67247386759582</v>
+        <v>11.07438016528926</v>
       </c>
       <c r="D15" t="n">
         <v>29</v>
@@ -2072,10 +2078,10 @@
         <v>56.71641791044776</v>
       </c>
       <c r="J15" t="n">
-        <v>7.910895522388059</v>
+        <v>7.910895522388056</v>
       </c>
       <c r="K15" t="n">
-        <v>2.772373433525743</v>
+        <v>2.772373433525742</v>
       </c>
       <c r="L15" t="n">
         <v>61.8</v>
@@ -2107,7 +2113,7 @@
         <v>93</v>
       </c>
       <c r="C16" t="n">
-        <v>16.2020905923345</v>
+        <v>15.37190082644628</v>
       </c>
       <c r="D16" t="n">
         <v>42</v>
@@ -2119,7 +2125,7 @@
         <v>51</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.778823529411765</v>
+        <v>-3.778823529411764</v>
       </c>
       <c r="H16" t="n">
         <v>45.16129032258064</v>
@@ -2128,16 +2134,16 @@
         <v>54.83870967741935</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.2387096774193547</v>
+        <v>-0.2387096774193542</v>
       </c>
       <c r="K16" t="n">
         <v>1.074408468244085</v>
       </c>
       <c r="L16" t="n">
-        <v>56.10000000000001</v>
+        <v>56.09999999999997</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6032258064516129</v>
+        <v>0.6032258064516126</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -2163,7 +2169,7 @@
         <v>18</v>
       </c>
       <c r="C17" t="n">
-        <v>3.13588850174216</v>
+        <v>2.975206611570248</v>
       </c>
       <c r="D17" t="n">
         <v>6</v>
@@ -2219,13 +2225,13 @@
         <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>2.613240418118467</v>
+        <v>2.479338842975207</v>
       </c>
       <c r="D18" t="n">
         <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>105.5628571428571</v>
+        <v>105.5628571428572</v>
       </c>
       <c r="F18" t="n">
         <v>8</v>
@@ -2240,7 +2246,7 @@
         <v>53.33333333333334</v>
       </c>
       <c r="J18" t="n">
-        <v>9.323333333333331</v>
+        <v>9.323333333333338</v>
       </c>
       <c r="K18" t="n">
         <v>1.409642720030141</v>
@@ -2275,7 +2281,7 @@
         <v>16</v>
       </c>
       <c r="C19" t="n">
-        <v>2.787456445993032</v>
+        <v>2.644628099173554</v>
       </c>
       <c r="D19" t="n">
         <v>10</v>
@@ -2331,13 +2337,13 @@
         <v>115</v>
       </c>
       <c r="C20" t="n">
-        <v>20.03484320557491</v>
+        <v>19.00826446280992</v>
       </c>
       <c r="D20" t="n">
         <v>51</v>
       </c>
       <c r="E20" t="n">
-        <v>15.63705882352942</v>
+        <v>15.63705882352941</v>
       </c>
       <c r="F20" t="n">
         <v>64</v>
@@ -2352,10 +2358,10 @@
         <v>55.65217391304348</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.7063478260869553</v>
+        <v>-0.7063478260869571</v>
       </c>
       <c r="K20" t="n">
-        <v>1.138897219485027</v>
+        <v>1.138897219485026</v>
       </c>
       <c r="L20" t="n">
         <v>93.2</v>
@@ -2374,6 +2380,62 @@
         </is>
       </c>
       <c r="P20" t="inlineStr">
+        <is>
+          <t>NKY</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B21" t="n">
+        <v>31</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5.12396694214876</v>
+      </c>
+      <c r="D21" t="n">
+        <v>11</v>
+      </c>
+      <c r="E21" t="n">
+        <v>16.32636363636364</v>
+      </c>
+      <c r="F21" t="n">
+        <v>20</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-5.288</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35.48387096774194</v>
+      </c>
+      <c r="I21" t="n">
+        <v>64.51612903225806</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.381612903225807</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.087436391142897</v>
+      </c>
+      <c r="L21" t="n">
+        <v>21</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.6774193548387096</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>SX5E</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>NKY</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
         <is>
           <t>NKY</t>
         </is>
